--- a/techniqo/data_new_ticker/LALPATHLAB.xlsx
+++ b/techniqo/data_new_ticker/LALPATHLAB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1170"/>
+  <dimension ref="A1:G1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41336,6 +41336,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1906.6</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1922.8</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>128618</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>1960.45</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>402556</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/LALPATHLAB.xlsx
+++ b/techniqo/data_new_ticker/LALPATHLAB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1172"/>
+  <dimension ref="A1:G1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41386,6 +41386,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1173" t="n">
+        <v>1959.9</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1941.6</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>1975.95</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>129104</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1941.7</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1986.15</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>298684</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
